--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.1993297382896</v>
+        <v>31.910369</v>
       </c>
       <c r="H2">
-        <v>29.1993297382896</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I2">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J2">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>14.7756262918232</v>
+        <v>0.05620966666666666</v>
       </c>
       <c r="N2">
-        <v>14.7756262918232</v>
+        <v>0.168629</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.003368847317172573</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.003368847317172572</v>
       </c>
       <c r="Q2">
-        <v>431.4383841846868</v>
+        <v>1.793671204700333</v>
       </c>
       <c r="R2">
-        <v>431.4383841846868</v>
+        <v>16.143040842303</v>
       </c>
       <c r="S2">
-        <v>0.5691744623946816</v>
+        <v>0.001953857917052863</v>
       </c>
       <c r="T2">
-        <v>0.5691744623946816</v>
+        <v>0.001953857917052863</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -599,57 +599,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.1979107735191</v>
+        <v>31.910369</v>
       </c>
       <c r="H3">
-        <v>11.1979107735191</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I3">
-        <v>0.218277779030783</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J3">
-        <v>0.218277779030783</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.7756262918232</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N3">
-        <v>14.7756262918232</v>
+        <v>44.563349</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.8902805491515402</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8902805491515401</v>
       </c>
       <c r="Q3">
-        <v>165.4561448386991</v>
+        <v>474.0109701552603</v>
       </c>
       <c r="R3">
-        <v>165.4561448386991</v>
+        <v>4266.098731397343</v>
       </c>
       <c r="S3">
-        <v>0.218277779030783</v>
+        <v>0.5163432876553843</v>
       </c>
       <c r="T3">
-        <v>0.218277779030783</v>
+        <v>0.5163432876553842</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.371096004150272</v>
+        <v>31.910369</v>
       </c>
       <c r="H4">
-        <v>0.371096004150272</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I4">
-        <v>0.00723367181891409</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J4">
-        <v>0.00723367181891409</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>14.7756262918232</v>
+        <v>0.02237433333333333</v>
       </c>
       <c r="N4">
-        <v>14.7756262918232</v>
+        <v>0.067123</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.001340974200585751</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.001340974200585751</v>
       </c>
       <c r="Q4">
-        <v>5.48317587571329</v>
+        <v>0.7139732327956666</v>
       </c>
       <c r="R4">
-        <v>5.48317587571329</v>
+        <v>6.425759095161</v>
       </c>
       <c r="S4">
-        <v>0.00723367181891409</v>
+        <v>0.0007777357688555309</v>
       </c>
       <c r="T4">
-        <v>0.00723367181891409</v>
+        <v>0.0007777357688555309</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.387740711516154</v>
+        <v>31.910369</v>
       </c>
       <c r="H5">
-        <v>0.387740711516154</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I5">
-        <v>0.007558122498145594</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J5">
-        <v>0.007558122498145594</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>14.7756262918232</v>
+        <v>1.752099666666667</v>
       </c>
       <c r="N5">
-        <v>14.7756262918232</v>
+        <v>5.256299</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.1050096293307016</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.1050096293307016</v>
       </c>
       <c r="Q5">
-        <v>5.729111851488319</v>
+        <v>55.91014688811034</v>
       </c>
       <c r="R5">
-        <v>5.729111851488319</v>
+        <v>503.191321992993</v>
       </c>
       <c r="S5">
-        <v>0.007558122498145594</v>
+        <v>0.0609032931200864</v>
       </c>
       <c r="T5">
-        <v>0.007558122498145594</v>
+        <v>0.06090329312008638</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.616499757877066</v>
+        <v>11.420477</v>
       </c>
       <c r="H6">
-        <v>0.616499757877066</v>
+        <v>34.261431</v>
       </c>
       <c r="I6">
-        <v>0.01201725934811423</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J6">
-        <v>0.01201725934811423</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>14.7756262918232</v>
+        <v>0.05620966666666666</v>
       </c>
       <c r="N6">
-        <v>14.7756262918232</v>
+        <v>0.168629</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.003368847317172573</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.003368847317172572</v>
       </c>
       <c r="Q6">
-        <v>9.109170031391013</v>
+        <v>0.6419412053443333</v>
       </c>
       <c r="R6">
-        <v>9.109170031391013</v>
+        <v>5.777470848099</v>
       </c>
       <c r="S6">
-        <v>0.01201725934811423</v>
+        <v>0.0006992708045140478</v>
       </c>
       <c r="T6">
-        <v>0.01201725934811423</v>
+        <v>0.0006992708045140477</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,1168 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.52861740667934</v>
+        <v>11.420477</v>
       </c>
       <c r="H7">
-        <v>9.52861740667934</v>
+        <v>34.261431</v>
       </c>
       <c r="I7">
-        <v>0.1857387049093616</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J7">
-        <v>0.1857387049093616</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.7756262918232</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N7">
-        <v>14.7756262918232</v>
+        <v>44.563349</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.8902805491515402</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.8902805491515401</v>
       </c>
       <c r="Q7">
-        <v>140.7912898788555</v>
+        <v>169.6449007658243</v>
       </c>
       <c r="R7">
-        <v>140.7912898788555</v>
+        <v>1526.804106892419</v>
       </c>
       <c r="S7">
-        <v>0.1857387049093616</v>
+        <v>0.1847953134221889</v>
       </c>
       <c r="T7">
-        <v>0.1857387049093616</v>
+        <v>0.1847953134221889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>11.420477</v>
+      </c>
+      <c r="H8">
+        <v>34.261431</v>
+      </c>
+      <c r="I8">
+        <v>0.2075697527013294</v>
+      </c>
+      <c r="J8">
+        <v>0.2075697527013294</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.02237433333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.067123</v>
+      </c>
+      <c r="O8">
+        <v>0.001340974200585751</v>
+      </c>
+      <c r="P8">
+        <v>0.001340974200585751</v>
+      </c>
+      <c r="Q8">
+        <v>0.2555255592236667</v>
+      </c>
+      <c r="R8">
+        <v>2.299730033013</v>
+      </c>
+      <c r="S8">
+        <v>0.0002783456831944471</v>
+      </c>
+      <c r="T8">
+        <v>0.0002783456831944471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11.420477</v>
+      </c>
+      <c r="H9">
+        <v>34.261431</v>
+      </c>
+      <c r="I9">
+        <v>0.2075697527013294</v>
+      </c>
+      <c r="J9">
+        <v>0.2075697527013294</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>1.752099666666667</v>
+      </c>
+      <c r="N9">
+        <v>5.256299</v>
+      </c>
+      <c r="O9">
+        <v>0.1050096293307016</v>
+      </c>
+      <c r="P9">
+        <v>0.1050096293307016</v>
+      </c>
+      <c r="Q9">
+        <v>20.00981394487433</v>
+      </c>
+      <c r="R9">
+        <v>180.088325503869</v>
+      </c>
+      <c r="S9">
+        <v>0.02179682279143199</v>
+      </c>
+      <c r="T9">
+        <v>0.02179682279143199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6836493333333333</v>
+      </c>
+      <c r="H10">
+        <v>2.050948</v>
+      </c>
+      <c r="I10">
+        <v>0.01242548126969028</v>
+      </c>
+      <c r="J10">
+        <v>0.01242548126969028</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.05620966666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.168629</v>
+      </c>
+      <c r="O10">
+        <v>0.003368847317172573</v>
+      </c>
+      <c r="P10">
+        <v>0.003368847317172572</v>
+      </c>
+      <c r="Q10">
+        <v>0.03842770114355555</v>
+      </c>
+      <c r="R10">
+        <v>0.345849310292</v>
+      </c>
+      <c r="S10">
+        <v>4.185954923997416E-05</v>
+      </c>
+      <c r="T10">
+        <v>4.185954923997416E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6836493333333333</v>
+      </c>
+      <c r="H11">
+        <v>2.050948</v>
+      </c>
+      <c r="I11">
+        <v>0.01242548126969028</v>
+      </c>
+      <c r="J11">
+        <v>0.01242548126969028</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>14.85444966666667</v>
+      </c>
+      <c r="N11">
+        <v>44.563349</v>
+      </c>
+      <c r="O11">
+        <v>0.8902805491515402</v>
+      </c>
+      <c r="P11">
+        <v>0.8902805491515401</v>
+      </c>
+      <c r="Q11">
+        <v>10.15523461165022</v>
+      </c>
+      <c r="R11">
+        <v>91.39711150485201</v>
+      </c>
+      <c r="S11">
+        <v>0.01106216428825204</v>
+      </c>
+      <c r="T11">
+        <v>0.01106216428825204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6836493333333333</v>
+      </c>
+      <c r="H12">
+        <v>2.050948</v>
+      </c>
+      <c r="I12">
+        <v>0.01242548126969028</v>
+      </c>
+      <c r="J12">
+        <v>0.01242548126969028</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02237433333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.067123</v>
+      </c>
+      <c r="O12">
+        <v>0.001340974200585751</v>
+      </c>
+      <c r="P12">
+        <v>0.001340974200585751</v>
+      </c>
+      <c r="Q12">
+        <v>0.01529619806711111</v>
+      </c>
+      <c r="R12">
+        <v>0.137665782604</v>
+      </c>
+      <c r="S12">
+        <v>1.666224981251615E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.666224981251615E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6836493333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.050948</v>
+      </c>
+      <c r="I13">
+        <v>0.01242548126969028</v>
+      </c>
+      <c r="J13">
+        <v>0.01242548126969028</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>1.752099666666667</v>
+      </c>
+      <c r="N13">
+        <v>5.256299</v>
+      </c>
+      <c r="O13">
+        <v>0.1050096293307016</v>
+      </c>
+      <c r="P13">
+        <v>0.1050096293307016</v>
+      </c>
+      <c r="Q13">
+        <v>1.197821769050222</v>
+      </c>
+      <c r="R13">
+        <v>10.780395921452</v>
+      </c>
+      <c r="S13">
+        <v>0.001304795182385752</v>
+      </c>
+      <c r="T13">
+        <v>0.001304795182385752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4491346666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.347404</v>
+      </c>
+      <c r="I14">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="J14">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.05620966666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.168629</v>
+      </c>
+      <c r="O14">
+        <v>0.003368847317172573</v>
+      </c>
+      <c r="P14">
+        <v>0.003368847317172572</v>
+      </c>
+      <c r="Q14">
+        <v>0.02524570990177778</v>
+      </c>
+      <c r="R14">
+        <v>0.227211389116</v>
+      </c>
+      <c r="S14">
+        <v>2.750031891795313E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.750031891795313E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4491346666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.347404</v>
+      </c>
+      <c r="I15">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="J15">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>14.85444966666667</v>
+      </c>
+      <c r="N15">
+        <v>44.563349</v>
+      </c>
+      <c r="O15">
+        <v>0.8902805491515402</v>
+      </c>
+      <c r="P15">
+        <v>0.8902805491515401</v>
+      </c>
+      <c r="Q15">
+        <v>6.671648299555112</v>
+      </c>
+      <c r="R15">
+        <v>60.044834695996</v>
+      </c>
+      <c r="S15">
+        <v>0.007267470657787498</v>
+      </c>
+      <c r="T15">
+        <v>0.007267470657787497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4491346666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.347404</v>
+      </c>
+      <c r="I16">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="J16">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02237433333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.067123</v>
+      </c>
+      <c r="O16">
+        <v>0.001340974200585751</v>
+      </c>
+      <c r="P16">
+        <v>0.001340974200585751</v>
+      </c>
+      <c r="Q16">
+        <v>0.01004908874355556</v>
+      </c>
+      <c r="R16">
+        <v>0.090441798692</v>
+      </c>
+      <c r="S16">
+        <v>1.094653889147044E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.094653889147044E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4491346666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.347404</v>
+      </c>
+      <c r="I17">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="J17">
+        <v>0.00816312415756312</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>1.752099666666667</v>
+      </c>
+      <c r="N17">
+        <v>5.256299</v>
+      </c>
+      <c r="O17">
+        <v>0.1050096293307016</v>
+      </c>
+      <c r="P17">
+        <v>0.1050096293307016</v>
+      </c>
+      <c r="Q17">
+        <v>0.7869286997551113</v>
+      </c>
+      <c r="R17">
+        <v>7.082358297796</v>
+      </c>
+      <c r="S17">
+        <v>0.000857206641966199</v>
+      </c>
+      <c r="T17">
+        <v>0.0008572066419661987</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6568320000000001</v>
+      </c>
+      <c r="H18">
+        <v>1.970496</v>
+      </c>
+      <c r="I18">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="J18">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.05620966666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.168629</v>
+      </c>
+      <c r="O18">
+        <v>0.003368847317172573</v>
+      </c>
+      <c r="P18">
+        <v>0.003368847317172572</v>
+      </c>
+      <c r="Q18">
+        <v>0.03692030777600001</v>
+      </c>
+      <c r="R18">
+        <v>0.332282769984</v>
+      </c>
+      <c r="S18">
+        <v>4.021753566602963E-05</v>
+      </c>
+      <c r="T18">
+        <v>4.021753566602962E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6568320000000001</v>
+      </c>
+      <c r="H19">
+        <v>1.970496</v>
+      </c>
+      <c r="I19">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="J19">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>14.85444966666667</v>
+      </c>
+      <c r="N19">
+        <v>44.563349</v>
+      </c>
+      <c r="O19">
+        <v>0.8902805491515402</v>
+      </c>
+      <c r="P19">
+        <v>0.8902805491515401</v>
+      </c>
+      <c r="Q19">
+        <v>9.756877883456001</v>
+      </c>
+      <c r="R19">
+        <v>87.81190095110402</v>
+      </c>
+      <c r="S19">
+        <v>0.01062823166718196</v>
+      </c>
+      <c r="T19">
+        <v>0.01062823166718196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.6568320000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.970496</v>
+      </c>
+      <c r="I20">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="J20">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.02237433333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.067123</v>
+      </c>
+      <c r="O20">
+        <v>0.001340974200585751</v>
+      </c>
+      <c r="P20">
+        <v>0.001340974200585751</v>
+      </c>
+      <c r="Q20">
+        <v>0.014696178112</v>
+      </c>
+      <c r="R20">
+        <v>0.132265603008</v>
+      </c>
+      <c r="S20">
+        <v>1.60086441033921E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.60086441033921E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.6568320000000001</v>
+      </c>
+      <c r="H21">
+        <v>1.970496</v>
+      </c>
+      <c r="I21">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="J21">
+        <v>0.01193807017047708</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>1.752099666666667</v>
+      </c>
+      <c r="N21">
+        <v>5.256299</v>
+      </c>
+      <c r="O21">
+        <v>0.1050096293307016</v>
+      </c>
+      <c r="P21">
+        <v>0.1050096293307016</v>
+      </c>
+      <c r="Q21">
+        <v>1.150835128256</v>
+      </c>
+      <c r="R21">
+        <v>10.357516154304</v>
+      </c>
+      <c r="S21">
+        <v>0.001253612323525704</v>
+      </c>
+      <c r="T21">
+        <v>0.001253612323525703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>9.899486</v>
+      </c>
+      <c r="H22">
+        <v>29.698458</v>
+      </c>
+      <c r="I22">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J22">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.05620966666666666</v>
+      </c>
+      <c r="N22">
+        <v>0.168629</v>
+      </c>
+      <c r="O22">
+        <v>0.003368847317172573</v>
+      </c>
+      <c r="P22">
+        <v>0.003368847317172572</v>
+      </c>
+      <c r="Q22">
+        <v>0.5564468082313333</v>
+      </c>
+      <c r="R22">
+        <v>5.008021274082</v>
+      </c>
+      <c r="S22">
+        <v>0.0006061411917817051</v>
+      </c>
+      <c r="T22">
+        <v>0.000606141191781705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>9.899486</v>
+      </c>
+      <c r="H23">
+        <v>29.698458</v>
+      </c>
+      <c r="I23">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J23">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>14.85444966666667</v>
+      </c>
+      <c r="N23">
+        <v>44.563349</v>
+      </c>
+      <c r="O23">
+        <v>0.8902805491515402</v>
+      </c>
+      <c r="P23">
+        <v>0.8902805491515401</v>
+      </c>
+      <c r="Q23">
+        <v>147.0514165128713</v>
+      </c>
+      <c r="R23">
+        <v>1323.462748615842</v>
+      </c>
+      <c r="S23">
+        <v>0.1601840814607456</v>
+      </c>
+      <c r="T23">
+        <v>0.1601840814607455</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>9.899486</v>
+      </c>
+      <c r="H24">
+        <v>29.698458</v>
+      </c>
+      <c r="I24">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J24">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.02237433333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.067123</v>
+      </c>
+      <c r="O24">
+        <v>0.001340974200585751</v>
+      </c>
+      <c r="P24">
+        <v>0.001340974200585751</v>
+      </c>
+      <c r="Q24">
+        <v>0.2214943995926666</v>
+      </c>
+      <c r="R24">
+        <v>1.993449596334</v>
+      </c>
+      <c r="S24">
+        <v>0.0002412753157283942</v>
+      </c>
+      <c r="T24">
+        <v>0.0002412753157283942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>9.899486</v>
+      </c>
+      <c r="H25">
+        <v>29.698458</v>
+      </c>
+      <c r="I25">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="J25">
+        <v>0.1799253972395612</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>1.752099666666667</v>
+      </c>
+      <c r="N25">
+        <v>5.256299</v>
+      </c>
+      <c r="O25">
+        <v>0.1050096293307016</v>
+      </c>
+      <c r="P25">
+        <v>0.1050096293307016</v>
+      </c>
+      <c r="Q25">
+        <v>17.34488612077133</v>
+      </c>
+      <c r="R25">
+        <v>156.103975086942</v>
+      </c>
+      <c r="S25">
+        <v>0.01889389927130556</v>
+      </c>
+      <c r="T25">
+        <v>0.01889389927130556</v>
       </c>
     </row>
   </sheetData>
